--- a/inputs/Assis_Chateaubriand_UVR-1_01-2025.xlsx
+++ b/inputs/Assis_Chateaubriand_UVR-1_01-2025.xlsx
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="C10" s="68" t="n">
-        <v>361.83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="34">
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="C22" s="68" t="n">
-        <v>1676.93</v>
+        <v>1924.76</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="34">
